--- a/results_3hl.xlsx
+++ b/results_3hl.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16240" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -453,7 +453,7 @@
   <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -517,10 +517,10 @@
         <v>9</v>
       </c>
       <c r="H2" s="5">
-        <v>320.490343</v>
+        <v>281.171874</v>
       </c>
       <c r="I2" s="5">
-        <v>0.86357300000000004</v>
+        <v>0.83160500000000004</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -546,10 +546,10 @@
         <v>9</v>
       </c>
       <c r="H3" s="5">
-        <v>406.52961299999998</v>
+        <v>234.362279</v>
       </c>
       <c r="I3" s="5">
-        <v>0.82694800000000002</v>
+        <v>0.85963900000000004</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -575,10 +575,10 @@
         <v>9</v>
       </c>
       <c r="H4" s="5">
-        <v>144.023832</v>
+        <v>346.44174800000002</v>
       </c>
       <c r="I4" s="5">
-        <v>0.93869199999999997</v>
+        <v>0.79251400000000005</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -604,10 +604,10 @@
         <v>9</v>
       </c>
       <c r="H5" s="5">
-        <v>244.38000099999999</v>
+        <v>325.81671299999999</v>
       </c>
       <c r="I5" s="5">
-        <v>0.89597199999999999</v>
+        <v>0.804867</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -633,10 +633,10 @@
         <v>9</v>
       </c>
       <c r="H6" s="5">
-        <v>83.022210000000001</v>
+        <v>65.127512999999993</v>
       </c>
       <c r="I6" s="5">
-        <v>0.96465900000000004</v>
+        <v>0.96099500000000004</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -662,10 +662,10 @@
         <v>9</v>
       </c>
       <c r="H7" s="5">
-        <v>178.708403</v>
+        <v>42.593395000000001</v>
       </c>
       <c r="I7" s="5">
-        <v>0.92392700000000005</v>
+        <v>0.974491</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -691,10 +691,10 @@
         <v>9</v>
       </c>
       <c r="H8" s="5">
-        <v>261.84219999999999</v>
+        <v>301.51780000000002</v>
       </c>
       <c r="I8" s="5">
-        <v>0.88853800000000005</v>
+        <v>0.81941900000000001</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -720,10 +720,10 @@
         <v>9</v>
       </c>
       <c r="H9" s="5">
-        <v>250.841578</v>
+        <v>238.35828900000001</v>
       </c>
       <c r="I9" s="5">
-        <v>0.89322100000000004</v>
+        <v>0.85724599999999995</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -749,10 +749,10 @@
         <v>9</v>
       </c>
       <c r="H10" s="5">
-        <v>267.54487699999999</v>
+        <v>288.821462</v>
       </c>
       <c r="I10" s="5">
-        <v>0.88611099999999998</v>
+        <v>0.82702299999999995</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -778,10 +778,10 @@
         <v>9</v>
       </c>
       <c r="H11" s="5">
-        <v>213.77034599999999</v>
+        <v>166.475966</v>
       </c>
       <c r="I11" s="5">
-        <v>0.90900199999999998</v>
+        <v>0.90029700000000001</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -807,10 +807,10 @@
         <v>9</v>
       </c>
       <c r="H12" s="5">
-        <v>146.793014</v>
+        <v>81.963016999999994</v>
       </c>
       <c r="I12" s="5">
-        <v>0.93751300000000004</v>
+        <v>0.95091199999999998</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -836,10 +836,10 @@
         <v>9</v>
       </c>
       <c r="H13" s="5">
-        <v>103.82673800000001</v>
+        <v>99.043397999999996</v>
       </c>
       <c r="I13" s="5">
-        <v>0.95580299999999996</v>
+        <v>0.94068200000000002</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -865,10 +865,10 @@
         <v>9</v>
       </c>
       <c r="H14" s="5">
-        <v>254.10492099999999</v>
+        <v>314.90475500000002</v>
       </c>
       <c r="I14" s="5">
-        <v>0.89183199999999996</v>
+        <v>0.81140199999999996</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -894,10 +894,10 @@
         <v>9</v>
       </c>
       <c r="H15" s="5">
-        <v>301.83420999999998</v>
+        <v>491.01738599999999</v>
       </c>
       <c r="I15" s="5">
-        <v>0.87151500000000004</v>
+        <v>0.70592699999999997</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -923,10 +923,10 @@
         <v>9</v>
       </c>
       <c r="H16" s="5">
-        <v>323.859601</v>
+        <v>566.56484899999998</v>
       </c>
       <c r="I16" s="5">
-        <v>0.86213899999999999</v>
+        <v>0.66068099999999996</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -952,10 +952,10 @@
         <v>9</v>
       </c>
       <c r="H17" s="5">
-        <v>324.613314</v>
+        <v>366.71887800000002</v>
       </c>
       <c r="I17" s="5">
-        <v>0.86181799999999997</v>
+        <v>0.78037000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -981,10 +981,10 @@
         <v>9</v>
       </c>
       <c r="H18" s="5">
-        <v>158.86358999999999</v>
+        <v>393.13355300000001</v>
       </c>
       <c r="I18" s="5">
-        <v>0.93237499999999995</v>
+        <v>0.76454999999999995</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1010,10 +1010,10 @@
         <v>9</v>
       </c>
       <c r="H19" s="5">
-        <v>128.890142</v>
+        <v>112.992549</v>
       </c>
       <c r="I19" s="5">
-        <v>0.94513400000000003</v>
+        <v>0.93232800000000005</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1039,10 +1039,10 @@
         <v>9</v>
       </c>
       <c r="H20" s="5">
-        <v>5492.9240820000005</v>
+        <v>246.17783399999999</v>
       </c>
       <c r="I20" s="5">
-        <v>-1.338239</v>
+        <v>0.85256299999999996</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1068,10 +1068,10 @@
         <v>9</v>
       </c>
       <c r="H21" s="5">
-        <v>818.102574</v>
+        <v>296.43122199999999</v>
       </c>
       <c r="I21" s="5">
-        <v>0.65174799999999999</v>
+        <v>0.82246600000000003</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1097,10 +1097,10 @@
         <v>9</v>
       </c>
       <c r="H22" s="5">
-        <v>889.509455</v>
+        <v>398.43800800000002</v>
       </c>
       <c r="I22" s="5">
-        <v>0.62135200000000002</v>
+        <v>0.76137299999999997</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1126,10 +1126,10 @@
         <v>9</v>
       </c>
       <c r="H23" s="5">
-        <v>817.74422700000002</v>
+        <v>208.91088500000001</v>
       </c>
       <c r="I23" s="5">
-        <v>0.65190099999999995</v>
+        <v>0.87488200000000005</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1155,10 +1155,10 @@
         <v>9</v>
       </c>
       <c r="H24" s="5">
-        <v>691.20854399999996</v>
+        <v>507.36787399999997</v>
       </c>
       <c r="I24" s="5">
-        <v>0.70576499999999998</v>
+        <v>0.69613499999999995</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1184,10 +1184,10 @@
         <v>9</v>
       </c>
       <c r="H25" s="5">
-        <v>714.45877800000005</v>
+        <v>446.27164199999999</v>
       </c>
       <c r="I25" s="5">
-        <v>0.69586800000000004</v>
+        <v>0.73272599999999999</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1213,10 +1213,10 @@
         <v>9</v>
       </c>
       <c r="H26" s="5">
-        <v>2018.2484119999999</v>
+        <v>312.798768</v>
       </c>
       <c r="I26" s="5">
-        <v>0.14086799999999999</v>
+        <v>0.81266300000000002</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1242,10 +1242,10 @@
         <v>9</v>
       </c>
       <c r="H27" s="5">
-        <v>1996.648835</v>
+        <v>295.19942400000002</v>
       </c>
       <c r="I27" s="5">
-        <v>0.150062</v>
+        <v>0.82320300000000002</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1271,10 +1271,10 @@
         <v>9</v>
       </c>
       <c r="H28" s="5">
-        <v>2161.9204570000002</v>
+        <v>309.43962599999998</v>
       </c>
       <c r="I28" s="5">
-        <v>7.9709000000000002E-2</v>
+        <v>0.81467500000000004</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1300,10 +1300,10 @@
         <v>9</v>
       </c>
       <c r="H29" s="5">
-        <v>2264.5522230000001</v>
+        <v>311.38617599999998</v>
       </c>
       <c r="I29" s="5">
-        <v>3.6020999999999997E-2</v>
+        <v>0.81350900000000004</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1329,10 +1329,10 @@
         <v>9</v>
       </c>
       <c r="H30" s="5">
-        <v>2250.7666840000002</v>
+        <v>403.14478600000001</v>
       </c>
       <c r="I30" s="5">
-        <v>4.1889000000000003E-2</v>
+        <v>0.75855399999999995</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1358,10 +1358,10 @@
         <v>9</v>
       </c>
       <c r="H31" s="5">
-        <v>2186.1515800000002</v>
+        <v>263.84679999999997</v>
       </c>
       <c r="I31" s="5">
-        <v>6.9393999999999997E-2</v>
+        <v>0.84198099999999998</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1387,10 +1387,10 @@
         <v>9</v>
       </c>
       <c r="H32" s="5">
-        <v>5626.4395649999997</v>
+        <v>4585.8873919999996</v>
       </c>
       <c r="I32" s="5">
-        <v>-1.3950739999999999</v>
+        <v>-1.746513</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1416,10 +1416,10 @@
         <v>9</v>
       </c>
       <c r="H33" s="5">
-        <v>3339.5887120000002</v>
+        <v>502.028794</v>
       </c>
       <c r="I33" s="5">
-        <v>-0.42160300000000001</v>
+        <v>0.69933199999999995</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1445,10 +1445,10 @@
         <v>9</v>
       </c>
       <c r="H34" s="5">
-        <v>3451.5059289999999</v>
+        <v>4585.8929410000001</v>
       </c>
       <c r="I34" s="5">
-        <v>-0.46924399999999999</v>
+        <v>-1.746516</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1474,10 +1474,10 @@
         <v>9</v>
       </c>
       <c r="H35" s="5">
-        <v>3381.0222869999998</v>
+        <v>462.24588699999998</v>
       </c>
       <c r="I35" s="5">
-        <v>-0.43924099999999999</v>
+        <v>0.72315799999999997</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1503,10 +1503,10 @@
         <v>9</v>
       </c>
       <c r="H36" s="5">
-        <v>3334.707852</v>
+        <v>421.217355</v>
       </c>
       <c r="I36" s="5">
-        <v>-0.41952499999999998</v>
+        <v>0.74773100000000003</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1532,10 +1532,10 @@
         <v>9</v>
       </c>
       <c r="H37" s="5">
-        <v>3339.5924239999999</v>
+        <v>382.787713</v>
       </c>
       <c r="I37" s="5">
-        <v>-0.42160500000000001</v>
+        <v>0.77074600000000004</v>
       </c>
     </row>
     <row r="38" spans="1:9">
